--- a/medicine/Enfance/Patrick_Raynal_(écrivain)/Patrick_Raynal_(écrivain).xlsx
+++ b/medicine/Enfance/Patrick_Raynal_(écrivain)/Patrick_Raynal_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patrick_Raynal_(%C3%A9crivain)</t>
+          <t>Patrick_Raynal_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Raynal, né le 1er juillet 1946 à Paris, est écrivain, éditeur, scénariste, traducteur et journaliste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patrick_Raynal_(%C3%A9crivain)</t>
+          <t>Patrick_Raynal_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Raynal passe une partie de son enfance dans le sud-ouest de la France. Après avoir fréquenté de nombreux collèges, à 14 ans, il rejoint son père à Saint-Paul-de-Vence. En 1969, il obtient une maîtrise de lettres modernes à la faculté de Nice, ville qu'il mettra en scène dans ses premiers romans. Il milite activement dans les mouvements d'extrême gauche (Gauche prolétarienne).
 Il devient critique spécialisé en littérature policière pour Nice-Matin de 1982 à 1988. En 1982, il publie Un tueur dans les arbres, son premier roman. En 1989, il propose à Télérama un reportage aux États-Unis sur quatre écrivains de son panthéon américain (James Crumley, Jim Harrison, Tony Hillerman et Richard Ford). Il découvre au cours de ce voyage la ville de Missoula (Montana) et ses nombreux écrivains.
 Considéré comme un spécialiste de la littérature américaine, il collabore, de 1990 à 1995, au journal Le Monde (Le Monde des Livres). La même année, il obtient le prix Mystère de la critique pour son roman Fenêtre sur femmes.
 En 1991, Antoine Gallimard lui confie la direction de la Série noire qu'il dirigera jusqu'en 2004. En 1992, il crée la collection La Noire dont la première couverture reproduit le négatif de la Collection Blanche de Gallimard. En 1995, dans le numéro de février de la revue Esprit (p. 77-96) il affirme : 
-« le roman noir est l’avenir du roman[1]. »
+« le roman noir est l’avenir du roman. »
 Il est vice-président du festival Étonnants voyageurs jusqu'à sa démission, le 4 décembre 2008.
 En novembre 2004, il rejoint les éditions Fayard (collection « Fayard Noir' »). Cette collaboration cesse en novembre 2009 (après le départ de Claude Durand), cependant il continuera, après cette date, à assurer la direction littéraire de tous les ouvrages achetés sur ses conseils.
 Également scénariste, il a participé, en 1998, à l'écriture du film Le Poulpe avec Jean-Bernard Pouy et Guillaume Nicloux.
@@ -528,11 +542,8 @@
 En 2011, il dirige la collection « Vendredi 13 » aux éditions La Branche.
 Conférencier en milieux culturels, scolaires et universitaires, il est également conseiller littéraire du Salon du livre de Colmar (de 2009 à 2019) où il invite une vingtaine d'écrivains sur l'espace « La Tasse de T de Patrick Raynal » animé par Michel Abescat et Christine Ferniot.
 En 2015 et 2016, il écrit avec Jean-Luc Fromental le scénario de Domenica, projet de long-métrage d'animation produit par Miyu Productions.
-En 2015, il participe à la rédaction de l'ouvrage C'est l'histoire de la Série Noire 1945-2015[2],[3] pour les 70 ans de la Série noire.
+En 2015, il participe à la rédaction de l'ouvrage C'est l'histoire de la Série Noire 1945-2015, pour les 70 ans de la Série noire.
 Il donne régulièrement des cours de creative writing à l'Atelier d'Écriture Les Mots (Paris, rue Dante)
-Vie privée
-Patrick Raynal est marié depuis 1970 avec Arlette Lauterbach (traductrice d'italien et coauteur du Livre de Cuisine de la Série Noire et du Livre des Alcools de la Série Noire chez Gallimard).  
-Il est le père du producteur Emmanuel-Alain Raynal, fondateur de Miyu Productions, société de production spécialisée en animation.
 </t>
         </is>
       </c>
@@ -543,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patrick_Raynal_(%C3%A9crivain)</t>
+          <t>Patrick_Raynal_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,13 +569,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrick Raynal est marié depuis 1970 avec Arlette Lauterbach (traductrice d'italien et coauteur du Livre de Cuisine de la Série Noire et du Livre des Alcools de la Série Noire chez Gallimard).  
+Il est le père du producteur Emmanuel-Alain Raynal, fondateur de Miyu Productions, société de production spécialisée en animation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patrick_Raynal_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Raynal_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Romans
-1982 : Un tueur dans les arbres (Albin Michel coll. « Sanguine » no 8)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1982 : Un tueur dans les arbres (Albin Michel coll. « Sanguine » no 8)
 1982 : La Clef de Seize (Albin Michel coll. « Sanguine » no 16 In Very Nice - Baleine 1996 - Gallimard 2000 : coll. « Folio policier » no 152)
 1985 : La Vie duraille, avec Jean Bernard Pouy et Daniel Pennac, sous le pseudonyme J.B. Nacray (Fleuve noir)
 1988 : Fenêtre sur femmes (Albin Michel - LGF 1991 : Le Livre de poche no 7306 - Gallimard 2002 : coll. « Folio policier » no 267)
@@ -574,7 +628,7 @@
 1995 : Arrêtez le carrelage - coll. « Le Poulpe » (Baleine 2009 - Flammarion 1998 : Librio noir no 207)
 1995 : Né de fils inconnu (Albin Michel - LGF 1997: Le Livre de poche no 17020)
 1997 : Nice, 42e rue (Fleuve noir 1985 - Baleine - Gallimard 1999 : coll. « Folio policier » no 128) Préface Jean-Bernard Pouy
-1997 : Blue movie  - Roman interactif - avec Françoise Rey (Blanche - Blanche 2001 coll. « Bibliothèque blanche » no 13)[4]
+1997 : Blue movie  - Roman interactif - avec Françoise Rey (Blanche - Blanche 2001 coll. « Bibliothèque blanche » no 13)
 1998 : En cherchant Sam (Flammarion - Le Seuil 1999 coll. « Points » no 682)
 1998 : La Plaine - poème - illustrations Frédéric Raynal (Le Ricochet)
 1999 : Le Marionnettiste (Le Masque - Gallimard 2001 coll. « Folio policier » no 202)
@@ -594,26 +648,196 @@
 2016 : Une ville en mai (L'Archipel)
 2017 : Cérium avec Gérard Filoche (Le Cherche Midi)
 2018 : Lord Gwynplaine, avec Jean-Bernard Pouy (Albin Michel)
-2021 : L'Âge de la guerre (Albin Michel), dans lequel Raynal emprunte l'héroïne Ghjulia « Diou » Boccanera des romans de Michèle Pedinielli[5].
-2023 : Domenica avec Emmanuel-Alain Raynal, Albin Michel
-Romans pour la jeunesse
-2003 : Kidu (Syros jeunesse coll. « Rat noir » no 8)
-2003 : Le Médaillon, suivi de La Piste de l'ombre (Gallimard coll. « Folio junior » no 1255)
-Préfaces
-1999 :  Préface Le livre de cuisine de la Série Noire, Gallimard, auteurs : Arlette Lauterbach et Alain Raybaud ; ill. Jochen Gerner
-2009 : Préface de Simenon en Amérique (volume 1 et volume 2) - Collection Omnibus des Presses de la Cité
-Bandes dessinées
-1987 : Nostalgia in Time square, avec Jacques Ferrandez (Futuropolis)
+2021 : L'Âge de la guerre (Albin Michel), dans lequel Raynal emprunte l'héroïne Ghjulia « Diou » Boccanera des romans de Michèle Pedinielli.
+2023 : Domenica avec Emmanuel-Alain Raynal, Albin Michel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patrick_Raynal_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Raynal_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2003 : Kidu (Syros jeunesse coll. « Rat noir » no 8)
+2003 : Le Médaillon, suivi de La Piste de l'ombre (Gallimard coll. « Folio junior » no 1255)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Patrick_Raynal_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Raynal_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Préfaces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1999 :  Préface Le livre de cuisine de la Série Noire, Gallimard, auteurs : Arlette Lauterbach et Alain Raybaud ; ill. Jochen Gerner
+2009 : Préface de Simenon en Amérique (volume 1 et volume 2) - Collection Omnibus des Presses de la Cité</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patrick_Raynal_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Raynal_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1987 : Nostalgia in Time square, avec Jacques Ferrandez (Futuropolis)
 2001 : Arrêtez le carrelage, avec Joe G. Pinelli (Le Poulpe, 6 Pieds sous terre coll. « Céphalopode » no 5)
-2004 : Sexual killer, avec Didier Eberoni (Albin Michel)
-Scénarios
-Renaissance film d'animation de Christian Volckman (2006) (Adaptation)
+2004 : Sexual killer, avec Didier Eberoni (Albin Michel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Patrick_Raynal_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Raynal_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Renaissance film d'animation de Christian Volckman (2006) (Adaptation)
 Le Poulpe de Guillaume Nicloux (1998) (Scénariste)
 Zone franche de Paul Vecchialli (1996) (Scénariste)
 Arrêt d'urgence de Denys Granier-Deferre (1994) (TV) (Scénariste)
-Fenêtre sur femmes de Don Kent (1992) (TV) (Scénariste)
-Traductions (de l'anglais)
-1997 : Avec Jeanne Guyon : Le Faucheux de James Sallis (The Long-legged Fly), Éditions Gallimard, coll. « La Noire »
+Fenêtre sur femmes de Don Kent (1992) (TV) (Scénariste)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Patrick_Raynal_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Raynal_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Traductions (de l'anglais)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1997 : Avec Jeanne Guyon : Le Faucheux de James Sallis (The Long-legged Fly), Éditions Gallimard, coll. « La Noire »
 2003 : Avec Isabelle Maillet : L'Œil du criquet de James Sallis (Eye of the Cricket) Éditions Gallimard, coll. « La Noire »
 2009 : L.A. Noir de Tom Epperson (The King One), Éditions Le Cherche Midi
 2009 : Poussière tu seras de Sam Millar (The Darkness of the Bones), Éditions Fayard, coll. « Fayard Noir »
@@ -730,12 +954,12 @@
 Pages noires, Gallimard, Paris, 1995  (ISBN 2-07059074-7)
 Melancolia. Illkirch : le Verger éd., 1999, 63 p. (Écrivains en résidence).  (ISBN 2-908367-94-7)
 Le Livre des alcools de la Série noire / Arlette Lauterbach et Patrick Raynal ; préf. Jean-Marie Laclavetine ; illustrations Joëlle Jolivet. Paris : Gallimard, 2001, 279 p. (Série noire).  (ISBN 2-07-076342-0)
-La plaine / [illustrations de] Frédéric Raynal. Nice : les Éd. du Ricochet, 1998, [45] p.  (ISBN 2-911013-12-3)
+La plaine / [illustrations de] Frédéric Raynal. Nice : les Éd. du Ricochet, 1998,  p.  (ISBN 2-911013-12-3)
 Blues Mississippi mud / photographie de Patrick Bard ; texte de Patrick Raynal. Paris : Ed. de la Martinière, 1993, 95 p.  (ISBN 2-7324-2027-1)
 Préface du Livre de cuisine de la Série Noire, Gallimard, coll. Série noire, 1999. auteurs : Arlette Lauterbach et Alain Raybaud ; ill: Jochen Gerner
 Bandes dessinées
-Arrêtez le carrelage adaptation en B.D. par Joe G. Pinelli du roman de Patrick Raynal. Montpellier : 6 pieds sous terre, 2001, [77] p. (Le Poulpe) (Collection Céphalopode ; 5).  (ISBN 2-910431-18-5)
-Sexual killer / Patrick Raynal, Didier Eberoni. Paris : A. Michel, 2004, [48] p. (BD haute tension).  (ISBN 2-226-15255-5)
+Arrêtez le carrelage adaptation en B.D. par Joe G. Pinelli du roman de Patrick Raynal. Montpellier : 6 pieds sous terre, 2001,  p. (Le Poulpe) (Collection Céphalopode ; 5).  (ISBN 2-910431-18-5)
+Sexual killer / Patrick Raynal, Didier Eberoni. Paris : A. Michel, 2004,  p. (BD haute tension).  (ISBN 2-226-15255-5)
 Traductions
 Nu dans le jardin d'Eden de Harry Crews (Naked in Garden Hills, 1969) Ed Sonatine, 2013
 Redemption Factory (The Redemption Factory) de Sam Millar ; Fayard Noir, 2010
@@ -747,33 +971,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Patrick_Raynal_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Patrick_Raynal_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Patrick_Raynal_(%C3%A9crivain)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Mystère de la critique 1989 pour Fenêtre sur femmes[6]</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix Mystère de la critique 1989 pour Fenêtre sur femmes</t>
         </is>
       </c>
     </row>
